--- a/biology/Botanique/Scaphium_longiflorum/Scaphium_longiflorum.xlsx
+++ b/biology/Botanique/Scaphium_longiflorum/Scaphium_longiflorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scaphium longiflorum est un arbre tropical de la famille des Sterculiaceae ou des Malvaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Scaphium velutinum Kosterm.</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Malaisie (Kedah, Penang, Perak, Selangor and Johor).
 Menacé par l'exploitation et la déforestation
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,9 +617,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Bois de faible densité (515 kg/m3)[2]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bois de faible densité (515 kg/m3)
 Usage médicinal</t>
         </is>
       </c>
